--- a/flashbox design/components/flashbox component list.xlsx
+++ b/flashbox design/components/flashbox component list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maikel\Dropbox\Prive\2019_SafetyCook\SourceCode\esp32-serial-flasher\flashbox design\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8120721E-25E1-40D5-8832-34E8D19AA6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C923AF-D91C-4A1D-9E0D-29FD84308EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/flashbox design/components/flashbox component list.xlsx
+++ b/flashbox design/components/flashbox component list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maikel\Dropbox\Prive\2019_SafetyCook\SourceCode\esp32-serial-flasher\flashbox design\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C923AF-D91C-4A1D-9E0D-29FD84308EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845EAB36-E73A-49EB-A47E-B4901CFCEF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>shop</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>material cost for 3d printed box/house (filament)</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,14 +616,20 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="2">
-        <f>SUM(E4:E10)</f>
-        <v>19.660000000000004</v>
+        <f>SUM(E4:E11)</f>
+        <v>29.660000000000004</v>
       </c>
     </row>
   </sheetData>
